--- a/Bayesian Statistics/Greenhouse gas emissions/data.xlsx
+++ b/Bayesian Statistics/Greenhouse gas emissions/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Projects\Bayesian Statistics\Greenhouse gas emissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\OneDrive\Desktop\Alessia\Bayesian analysis\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEAA112-E7CE-49B1-814B-FA9CA2C98A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C6C1B3-5AF2-4A83-8A8E-7FDC57442207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -427,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{E85B6410-799F-4E33-A0FD-287DAC28BE6F}">
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{F3EA624F-87E0-4AB0-9981-1E820587FBB7}">
       <text>
         <r>
           <rPr>
@@ -451,31 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{F3EA624F-87E0-4AB0-9981-1E820587FBB7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessia Leo Folliero:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-1000 heads</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{C446A9A2-EDEB-4E36-A93F-A616F9CC8F98}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{C446A9A2-EDEB-4E36-A93F-A616F9CC8F98}">
       <text>
         <r>
           <rPr>
@@ -499,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{836EA57C-E27F-4C11-A23A-F0C4F388474C}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{836EA57C-E27F-4C11-A23A-F0C4F388474C}">
       <text>
         <r>
           <rPr>
@@ -523,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{DA4C5D16-BA95-4153-A12A-636E5BB37373}">
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{DA4C5D16-BA95-4153-A12A-636E5BB37373}">
       <text>
         <r>
           <rPr>
@@ -548,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1" shapeId="0" xr:uid="{89D225A9-094D-4630-8B66-E49B67495BF6}">
+    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{89D225A9-094D-4630-8B66-E49B67495BF6}">
       <text>
         <r>
           <rPr>
@@ -572,12 +548,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{D29987A9-1D35-4ABE-95AA-064982D52240}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alessia Leo Folliero:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+x1000</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="228">
   <si>
     <t xml:space="preserve">Dataset: </t>
   </si>
@@ -669,9 +669,6 @@
     <t>waste_capacity</t>
   </si>
   <si>
-    <t>Bovine_heads</t>
-  </si>
-  <si>
     <t>Pigs_heads</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>Total_freight_loaded_and_unloaded</t>
   </si>
   <si>
-    <t>8235.00</t>
-  </si>
-  <si>
     <t>8837.00</t>
   </si>
   <si>
@@ -711,9 +705,6 @@
     <t>25.81</t>
   </si>
   <si>
-    <t>8087.30</t>
-  </si>
-  <si>
     <t>8548.80</t>
   </si>
   <si>
@@ -726,9 +717,6 @@
     <t>26.07</t>
   </si>
   <si>
-    <t>7703.50</t>
-  </si>
-  <si>
     <t>8244.40</t>
   </si>
   <si>
@@ -741,9 +729,6 @@
     <t>26.34</t>
   </si>
   <si>
-    <t>7560.00</t>
-  </si>
-  <si>
     <t>8348.10</t>
   </si>
   <si>
@@ -756,9 +741,6 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>7272.00</t>
-  </si>
-  <si>
     <t>8023.00</t>
   </si>
   <si>
@@ -771,9 +753,6 @@
     <t>26.87</t>
   </si>
   <si>
-    <t>7418.00</t>
-  </si>
-  <si>
     <t>8061.00</t>
   </si>
   <si>
@@ -786,9 +765,6 @@
     <t>27.13</t>
   </si>
   <si>
-    <t>7390.00</t>
-  </si>
-  <si>
     <t>8090.00</t>
   </si>
   <si>
@@ -801,9 +777,6 @@
     <t>27.4</t>
   </si>
   <si>
-    <t>7328.00</t>
-  </si>
-  <si>
     <t>8281.00</t>
   </si>
   <si>
@@ -816,9 +789,6 @@
     <t>27.66</t>
   </si>
   <si>
-    <t>7316.00</t>
-  </si>
-  <si>
     <t>8323.00</t>
   </si>
   <si>
@@ -831,9 +801,6 @@
     <t>27.93</t>
   </si>
   <si>
-    <t>7361.00</t>
-  </si>
-  <si>
     <t>8415.00</t>
   </si>
   <si>
@@ -846,9 +813,6 @@
     <t>28.19</t>
   </si>
   <si>
-    <t>6231.95</t>
-  </si>
-  <si>
     <t>8645.54</t>
   </si>
   <si>
@@ -861,9 +825,6 @@
     <t>28.3</t>
   </si>
   <si>
-    <t>6932.66</t>
-  </si>
-  <si>
     <t>8766.26</t>
   </si>
   <si>
@@ -876,9 +837,6 @@
     <t>28.52</t>
   </si>
   <si>
-    <t>6695.00</t>
-  </si>
-  <si>
     <t>9166.00</t>
   </si>
   <si>
@@ -891,9 +849,6 @@
     <t>28.75</t>
   </si>
   <si>
-    <t>6727.16</t>
-  </si>
-  <si>
     <t>9157.00</t>
   </si>
   <si>
@@ -906,9 +861,6 @@
     <t>28.97</t>
   </si>
   <si>
-    <t>6515.00</t>
-  </si>
-  <si>
     <t>8971.76</t>
   </si>
   <si>
@@ -921,9 +873,6 @@
     <t>29.19</t>
   </si>
   <si>
-    <t>6459.90</t>
-  </si>
-  <si>
     <t>9200.00</t>
   </si>
   <si>
@@ -936,9 +885,6 @@
     <t>29.42</t>
   </si>
   <si>
-    <t>6340.16</t>
-  </si>
-  <si>
     <t>9281.08</t>
   </si>
   <si>
@@ -948,9 +894,6 @@
     <t>29.64</t>
   </si>
   <si>
-    <t>6577.00</t>
-  </si>
-  <si>
     <t>9273.00</t>
   </si>
   <si>
@@ -963,9 +906,6 @@
     <t>29.86</t>
   </si>
   <si>
-    <t>6486.27</t>
-  </si>
-  <si>
     <t>9252.44</t>
   </si>
   <si>
@@ -978,9 +918,6 @@
     <t>30.08</t>
   </si>
   <si>
-    <t>6446.74</t>
-  </si>
-  <si>
     <t>9157.07</t>
   </si>
   <si>
@@ -993,9 +930,6 @@
     <t>30.31</t>
   </si>
   <si>
-    <t>5832.46</t>
-  </si>
-  <si>
     <t>739.09</t>
   </si>
   <si>
@@ -1008,9 +942,6 @@
     <t>30.53</t>
   </si>
   <si>
-    <t>6251.93</t>
-  </si>
-  <si>
     <t>9350.78</t>
   </si>
   <si>
@@ -1032,9 +963,6 @@
     <t>30.89</t>
   </si>
   <si>
-    <t>6249.29</t>
-  </si>
-  <si>
     <t>8561.28</t>
   </si>
   <si>
@@ -1047,9 +975,6 @@
     <t>31.08</t>
   </si>
   <si>
-    <t>6125.42</t>
-  </si>
-  <si>
     <t>8676.10</t>
   </si>
   <si>
@@ -1062,9 +987,6 @@
     <t>31.26</t>
   </si>
   <si>
-    <t>6155.81</t>
-  </si>
-  <si>
     <t>8674.79</t>
   </si>
   <si>
@@ -1077,9 +999,6 @@
     <t>31.44</t>
   </si>
   <si>
-    <t>6314.89</t>
-  </si>
-  <si>
     <t>8477.93</t>
   </si>
   <si>
@@ -1092,9 +1011,6 @@
     <t>31.62</t>
   </si>
   <si>
-    <t>6349.81</t>
-  </si>
-  <si>
     <t>8570.75</t>
   </si>
   <si>
@@ -1107,9 +1023,6 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>6311.16</t>
-  </si>
-  <si>
     <t>8492.23</t>
   </si>
   <si>
@@ -1122,9 +1035,6 @@
     <t>31.98</t>
   </si>
   <si>
-    <t>6377.23</t>
-  </si>
-  <si>
     <t>8510.27</t>
   </si>
   <si>
@@ -1137,9 +1047,6 @@
     <t>32.17</t>
   </si>
   <si>
-    <t>6400.04</t>
-  </si>
-  <si>
     <t>8543.03</t>
   </si>
   <si>
@@ -1152,7 +1059,208 @@
     <t>32.35</t>
   </si>
   <si>
+    <t>Head_sheep</t>
+  </si>
+  <si>
+    <t>10847.60</t>
+  </si>
+  <si>
+    <t>10435.00</t>
+  </si>
+  <si>
+    <t>10439.00</t>
+  </si>
+  <si>
+    <t>10461.00</t>
+  </si>
+  <si>
+    <t>10681.00</t>
+  </si>
+  <si>
+    <t>10668.00</t>
+  </si>
+  <si>
+    <t>10920.00</t>
+  </si>
+  <si>
+    <t>10890.00</t>
+  </si>
+  <si>
+    <t>10894.00</t>
+  </si>
+  <si>
+    <t>11017.00</t>
+  </si>
+  <si>
+    <t>6809.00</t>
+  </si>
+  <si>
+    <t>8311.38</t>
+  </si>
+  <si>
+    <t>8138.00</t>
+  </si>
+  <si>
+    <t>7951.64</t>
+  </si>
+  <si>
+    <t>8106.00</t>
+  </si>
+  <si>
+    <t>7954.00</t>
+  </si>
+  <si>
+    <t>8227.18</t>
+  </si>
+  <si>
+    <t>8237.00</t>
+  </si>
+  <si>
+    <t>8175.16</t>
+  </si>
+  <si>
+    <t>8012.59</t>
+  </si>
+  <si>
+    <t>7900.02</t>
+  </si>
+  <si>
+    <t>7942.64</t>
+  </si>
+  <si>
+    <t>7015.73</t>
+  </si>
+  <si>
+    <t>7181.83</t>
+  </si>
+  <si>
+    <t>7166.02</t>
+  </si>
+  <si>
+    <t>7148.53</t>
+  </si>
+  <si>
+    <t>7284.87</t>
+  </si>
+  <si>
+    <t>7215.40</t>
+  </si>
+  <si>
+    <t>7179.15</t>
+  </si>
+  <si>
+    <t>7000.88</t>
+  </si>
+  <si>
+    <t>7034.16</t>
+  </si>
+  <si>
+    <t>Head_goat</t>
+  </si>
+  <si>
+    <t>1297.50</t>
+  </si>
+  <si>
+    <t>1314.00</t>
+  </si>
+  <si>
+    <t>1344.00</t>
+  </si>
+  <si>
+    <t>1378.00</t>
+  </si>
+  <si>
+    <t>1448.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>1347.00</t>
+  </si>
+  <si>
+    <t>1331.00</t>
+  </si>
+  <si>
+    <t>1397.00</t>
+  </si>
+  <si>
+    <t>923.00</t>
+  </si>
+  <si>
+    <t>1024.77</t>
+  </si>
+  <si>
+    <t>988.00</t>
+  </si>
+  <si>
+    <t>961.03</t>
+  </si>
+  <si>
+    <t>978.00</t>
+  </si>
+  <si>
+    <t>945.00</t>
+  </si>
+  <si>
+    <t>955.31</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>957.25</t>
+  </si>
+  <si>
+    <t>960.96</t>
+  </si>
+  <si>
+    <t>982.92</t>
+  </si>
+  <si>
+    <t>959.92</t>
+  </si>
+  <si>
+    <t>891.64</t>
+  </si>
+  <si>
+    <t>975.86</t>
+  </si>
+  <si>
+    <t>937.03</t>
+  </si>
+  <si>
+    <t>961.68</t>
+  </si>
+  <si>
+    <t>1026.26</t>
+  </si>
+  <si>
+    <t>992.08</t>
+  </si>
+  <si>
+    <t>986.26</t>
+  </si>
+  <si>
+    <t>1058.72</t>
+  </si>
+  <si>
+    <t>1065.71</t>
+  </si>
+  <si>
     <t>Share_of_land_under_permanent_crops</t>
+  </si>
+  <si>
+    <t>Chicken_heads</t>
+  </si>
+  <si>
+    <t>Buffalo_head</t>
+  </si>
+  <si>
+    <t>Cattle_heads</t>
+  </si>
+  <si>
+    <t>Turkeys_heads</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1333,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1509,13 +1617,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="137.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1547,27 +1655,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1579,40 +1687,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
-    <col min="22" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" customWidth="1"/>
+    <col min="21" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1668,10 +1778,10 @@
         <v>30</v>
       </c>
       <c r="S1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" t="s">
         <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>191</v>
       </c>
       <c r="U1" t="s">
         <v>32</v>
@@ -1692,10 +1802,25 @@
         <v>37</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>160</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -1748,33 +1873,48 @@
         <v>46</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4">
+        <v>214124</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="4">
-        <v>214124</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4">
+        <v>6193</v>
+      </c>
       <c r="Y2" s="4">
-        <v>6193</v>
-      </c>
-      <c r="Z2" s="4">
         <v>2510000</v>
       </c>
-      <c r="AA2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC2">
+        <v>149034</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>112.4</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>8745.9</v>
+      </c>
+      <c r="AF2">
+        <v>23400</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -1827,33 +1967,48 @@
         <v>46</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4">
+        <v>204996</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="4">
-        <v>204996</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4">
+        <v>6301</v>
+      </c>
       <c r="Y3" s="4">
-        <v>6301</v>
-      </c>
-      <c r="Z3" s="4">
         <v>2518000</v>
       </c>
-      <c r="AA3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC3">
+        <v>133000</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>8140</v>
+      </c>
+      <c r="AF3">
+        <v>22800</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -1906,33 +2061,48 @@
         <v>63</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="4">
+        <v>216410</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="4">
-        <v>216410</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4">
+        <v>6289</v>
+      </c>
       <c r="Y4" s="4">
-        <v>6289</v>
-      </c>
-      <c r="Z4" s="4">
         <v>2560000</v>
       </c>
-      <c r="AA4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC4">
+        <v>135000</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>8004</v>
+      </c>
+      <c r="AF4">
+        <v>22500</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -1985,35 +2155,50 @@
         <v>74</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="4">
+        <v>51</v>
+      </c>
+      <c r="T5" s="4">
         <v>231740</v>
       </c>
+      <c r="U5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="V5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4">
+        <v>6401</v>
+      </c>
       <c r="Y5" s="4">
-        <v>6401</v>
+        <v>2540000</v>
       </c>
       <c r="Z5" s="4">
-        <v>2540000</v>
-      </c>
-      <c r="AA5" s="4">
         <v>402501</v>
       </c>
+      <c r="AA5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC5">
+        <v>127628</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>7600.3</v>
+      </c>
+      <c r="AF5">
+        <v>22200</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -2066,35 +2251,50 @@
         <v>76</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="4">
+        <v>55</v>
+      </c>
+      <c r="T6" s="4">
         <v>235951</v>
       </c>
+      <c r="U6" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="V6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
+        <v>6375</v>
+      </c>
       <c r="Y6" s="4">
-        <v>6375</v>
+        <v>2531000</v>
       </c>
       <c r="Z6" s="4">
-        <v>2531000</v>
-      </c>
-      <c r="AA6" s="4">
         <v>438104</v>
       </c>
+      <c r="AA6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC6">
+        <v>124000</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>100.9</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>7458.9</v>
+      </c>
+      <c r="AF6">
+        <v>22500</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -2147,37 +2347,52 @@
         <v>79</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="4">
+        <v>59</v>
+      </c>
+      <c r="T7" s="4">
         <v>239259</v>
       </c>
+      <c r="U7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="V7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="W7" s="4">
+        <v>22028</v>
       </c>
       <c r="X7" s="4">
-        <v>22028</v>
+        <v>6435</v>
       </c>
       <c r="Y7" s="4">
-        <v>6435</v>
+        <v>2573000</v>
       </c>
       <c r="Z7" s="4">
-        <v>2573000</v>
-      </c>
-      <c r="AA7" s="4">
         <v>534703</v>
       </c>
+      <c r="AA7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC7">
+        <v>113429</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>108.3</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>7163.6</v>
+      </c>
+      <c r="AF7">
+        <v>24800</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -2230,37 +2445,52 @@
         <v>80</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="4">
+        <v>63</v>
+      </c>
+      <c r="T8" s="4">
         <v>245000</v>
       </c>
+      <c r="U8" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="V8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="W8" s="4">
+        <v>22058</v>
       </c>
       <c r="X8" s="4">
-        <v>22058</v>
+        <v>6465</v>
       </c>
       <c r="Y8" s="4">
-        <v>6465</v>
+        <v>2598000</v>
       </c>
       <c r="Z8" s="4">
-        <v>2598000</v>
-      </c>
-      <c r="AA8" s="4">
         <v>554113</v>
       </c>
+      <c r="AA8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC8">
+        <v>164549</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>148.4</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>7265.1</v>
+      </c>
+      <c r="AF8">
+        <v>27000</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -2313,37 +2543,52 @@
         <v>80</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" s="4">
+        <v>67</v>
+      </c>
+      <c r="T9" s="4">
         <v>232835</v>
       </c>
+      <c r="U9" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="V9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="W9" s="4">
+        <v>22136</v>
       </c>
       <c r="X9" s="4">
-        <v>22136</v>
+        <v>6469</v>
       </c>
       <c r="Y9" s="4">
-        <v>6469</v>
+        <v>2759000</v>
       </c>
       <c r="Z9" s="4">
-        <v>2759000</v>
-      </c>
-      <c r="AA9" s="4">
         <v>535304</v>
       </c>
+      <c r="AA9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC9">
+        <v>108345</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>150</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>7162.5</v>
+      </c>
+      <c r="AF9">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -2396,37 +2641,52 @@
         <v>167</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="4">
+        <v>71</v>
+      </c>
+      <c r="T10" s="4">
         <v>222705</v>
       </c>
+      <c r="U10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="V10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="W10" s="4">
+        <v>22215</v>
       </c>
       <c r="X10" s="4">
-        <v>22215</v>
+        <v>6478</v>
       </c>
       <c r="Y10" s="4">
-        <v>6478</v>
+        <v>2976000</v>
       </c>
       <c r="Z10" s="4">
-        <v>2976000</v>
-      </c>
-      <c r="AA10" s="4">
         <v>445529</v>
       </c>
+      <c r="AA10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC10">
+        <v>119521</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>162</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>7166</v>
+      </c>
+      <c r="AF10">
+        <v>26000</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -2479,35 +2739,50 @@
         <v>165</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="4">
+        <v>75</v>
+      </c>
+      <c r="T11" s="4">
         <v>220795</v>
       </c>
+      <c r="U11" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="V11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="W11" s="4">
+        <v>22295</v>
       </c>
       <c r="X11" s="4">
-        <v>22295</v>
+        <v>6478</v>
       </c>
       <c r="Y11" s="4">
-        <v>6478</v>
-      </c>
-      <c r="Z11" s="4">
         <v>3376000</v>
       </c>
-      <c r="AA11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC11">
+        <v>106000</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>200</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>7129</v>
+      </c>
+      <c r="AF11">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2560,35 +2835,50 @@
         <v>287</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U12" s="4">
+        <v>79</v>
+      </c>
+      <c r="T12" s="4">
         <v>220348</v>
       </c>
+      <c r="U12" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="V12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="W12" s="4">
+        <v>22130</v>
       </c>
       <c r="X12" s="4">
-        <v>22130</v>
+        <v>6478</v>
       </c>
       <c r="Y12" s="4">
-        <v>6478</v>
-      </c>
-      <c r="Z12" s="4">
         <v>3732000</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC12">
+        <v>100000</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>182</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>7162</v>
+      </c>
+      <c r="AF12">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -2641,37 +2931,52 @@
         <v>320</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="U13" s="4">
+        <v>83</v>
+      </c>
+      <c r="T13" s="4">
         <v>217622</v>
       </c>
+      <c r="U13" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="V13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="W13" s="4">
+        <v>22265</v>
       </c>
       <c r="X13" s="4">
-        <v>22265</v>
+        <v>6478</v>
       </c>
       <c r="Y13" s="4">
-        <v>6478</v>
+        <v>4050000</v>
       </c>
       <c r="Z13" s="4">
-        <v>4050000</v>
-      </c>
-      <c r="AA13" s="4">
         <v>206773</v>
       </c>
+      <c r="AA13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC13">
+        <v>100000</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>182</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>6050</v>
+      </c>
+      <c r="AF13">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -2724,37 +3029,52 @@
         <v>378</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="4">
+        <v>87</v>
+      </c>
+      <c r="T14" s="4">
         <v>218676</v>
       </c>
+      <c r="U14" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="V14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="W14" s="4">
+        <v>22250</v>
       </c>
       <c r="X14" s="4">
-        <v>22250</v>
+        <v>6487</v>
       </c>
       <c r="Y14" s="4">
-        <v>6487</v>
+        <v>4376000</v>
       </c>
       <c r="Z14" s="4">
-        <v>4376000</v>
-      </c>
-      <c r="AA14" s="4">
         <v>593104</v>
       </c>
+      <c r="AA14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC14">
+        <v>100000</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>193.774</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>6739</v>
+      </c>
+      <c r="AF14">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -2807,37 +3127,52 @@
         <v>446</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U15" s="4">
+        <v>91</v>
+      </c>
+      <c r="T15" s="4">
         <v>218675</v>
       </c>
+      <c r="U15" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="V15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="W15" s="4">
+        <v>22262</v>
       </c>
       <c r="X15" s="4">
-        <v>22262</v>
+        <v>6487</v>
       </c>
       <c r="Y15" s="4">
-        <v>6487</v>
+        <v>4575000</v>
       </c>
       <c r="Z15" s="4">
-        <v>4575000</v>
-      </c>
-      <c r="AA15" s="4">
         <v>683863</v>
       </c>
+      <c r="AA15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC15">
+        <v>100000</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>185</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>6504.7030000000004</v>
+      </c>
+      <c r="AF15">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -2890,37 +3225,52 @@
         <v>524</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U16" s="4">
+        <v>95</v>
+      </c>
+      <c r="T16" s="4">
         <v>229722</v>
       </c>
+      <c r="U16" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="V16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="W16" s="4">
+        <v>22277</v>
       </c>
       <c r="X16" s="4">
-        <v>22277</v>
+        <v>6532</v>
       </c>
       <c r="Y16" s="4">
-        <v>6532</v>
+        <v>4938000</v>
       </c>
       <c r="Z16" s="4">
-        <v>4938000</v>
-      </c>
-      <c r="AA16" s="4">
         <v>710593</v>
       </c>
+      <c r="AA16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC16">
+        <v>100000</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>223.393</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>6504</v>
+      </c>
+      <c r="AF16">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -2973,37 +3323,52 @@
         <v>499</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="U17" s="4">
+        <v>99</v>
+      </c>
+      <c r="T17" s="4">
         <v>224015</v>
       </c>
+      <c r="U17" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="V17" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
+      </c>
+      <c r="W17" s="4">
+        <v>22999</v>
       </c>
       <c r="X17" s="4">
-        <v>22999</v>
+        <v>6542</v>
       </c>
       <c r="Y17" s="4">
-        <v>6542</v>
+        <v>5289000</v>
       </c>
       <c r="Z17" s="4">
-        <v>5289000</v>
-      </c>
-      <c r="AA17" s="4">
         <v>754302</v>
       </c>
+      <c r="AA17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC17">
+        <v>100000</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>210</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>6304</v>
+      </c>
+      <c r="AF17">
+        <v>26000</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -3056,37 +3421,52 @@
         <v>526</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U18" s="4">
+        <v>55</v>
+      </c>
+      <c r="T18" s="4">
         <v>226077</v>
       </c>
+      <c r="U18" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="V18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="W18" s="4">
+        <v>23193</v>
       </c>
       <c r="X18" s="4">
-        <v>23193</v>
+        <v>6554</v>
       </c>
       <c r="Y18" s="4">
-        <v>6554</v>
+        <v>5590000</v>
       </c>
       <c r="Z18" s="4">
-        <v>5590000</v>
-      </c>
-      <c r="AA18" s="4">
         <v>810446</v>
       </c>
+      <c r="AA18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC18">
+        <v>95000</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>205</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>6255</v>
+      </c>
+      <c r="AF18">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -3139,37 +3519,52 @@
         <v>558</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U19" s="4">
+        <v>106</v>
+      </c>
+      <c r="T19" s="4">
         <v>232500</v>
       </c>
+      <c r="U19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="V19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="W19" s="4">
+        <v>23385</v>
       </c>
       <c r="X19" s="4">
-        <v>23385</v>
+        <v>6588</v>
       </c>
       <c r="Y19" s="4">
-        <v>6588</v>
+        <v>5859000</v>
       </c>
       <c r="Z19" s="4">
-        <v>5859000</v>
-      </c>
-      <c r="AA19" s="4">
         <v>906680</v>
       </c>
+      <c r="AA19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC19">
+        <v>100000</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>231</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>6117</v>
+      </c>
+      <c r="AF19">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -3222,37 +3617,52 @@
         <v>577</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="U20" s="4">
+        <v>110</v>
+      </c>
+      <c r="T20" s="4">
         <v>224200</v>
       </c>
+      <c r="U20" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="V20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="W20" s="4">
+        <v>23835</v>
       </c>
       <c r="X20" s="4">
-        <v>23835</v>
+        <v>6629</v>
       </c>
       <c r="Y20" s="4">
-        <v>6629</v>
+        <v>6118000</v>
       </c>
       <c r="Z20" s="4">
-        <v>6118000</v>
-      </c>
-      <c r="AA20" s="4">
         <v>814995</v>
       </c>
+      <c r="AA20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC20">
+        <v>115000</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>307.149</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>6283</v>
+      </c>
+      <c r="AF20">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -3305,37 +3715,52 @@
         <v>728</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U21" s="4">
+        <v>114</v>
+      </c>
+      <c r="T21" s="4">
         <v>238500</v>
       </c>
+      <c r="U21" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="V21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
+      </c>
+      <c r="W21" s="4">
+        <v>24179</v>
       </c>
       <c r="X21" s="4">
-        <v>24179</v>
+        <v>6661</v>
       </c>
       <c r="Y21" s="4">
-        <v>6661</v>
+        <v>6305000</v>
       </c>
       <c r="Z21" s="4">
-        <v>6305000</v>
-      </c>
-      <c r="AA21" s="4">
         <v>705883</v>
       </c>
+      <c r="AA21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC21">
+        <v>120000</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>344.00700000000001</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>6179</v>
+      </c>
+      <c r="AF21">
+        <v>24400</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -3388,37 +3813,52 @@
         <v>732</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U22" s="4">
+        <v>118</v>
+      </c>
+      <c r="T22" s="4">
         <v>247700</v>
       </c>
+      <c r="U22" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="V22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="W22" s="4">
+        <v>24216</v>
       </c>
       <c r="X22" s="4">
-        <v>24216</v>
+        <v>6668</v>
       </c>
       <c r="Y22" s="4">
-        <v>6668</v>
+        <v>6428000</v>
       </c>
       <c r="Z22" s="4">
-        <v>6428000</v>
-      </c>
-      <c r="AA22" s="4">
         <v>838724</v>
       </c>
+      <c r="AA22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC22">
+        <v>130000</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>365.08600000000001</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>6103</v>
+      </c>
+      <c r="AF22">
+        <v>24000</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -3471,37 +3911,52 @@
         <v>760</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U23" s="4">
+        <v>122</v>
+      </c>
+      <c r="T23" s="4">
         <v>246500</v>
       </c>
+      <c r="U23" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="V23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="W23" s="4">
+        <v>24240</v>
       </c>
       <c r="X23" s="4">
-        <v>24240</v>
+        <v>6668</v>
       </c>
       <c r="Y23" s="4">
-        <v>6668</v>
+        <v>6483000</v>
       </c>
       <c r="Z23" s="4">
-        <v>6483000</v>
-      </c>
-      <c r="AA23" s="4">
         <v>846551</v>
       </c>
+      <c r="AA23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC23">
+        <v>138000</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>354.40199999999999</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>5832.4570000000003</v>
+      </c>
+      <c r="AF23">
+        <v>24500</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -3554,37 +4009,52 @@
         <v>772</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U24" s="4">
+        <v>51</v>
+      </c>
+      <c r="T24" s="4">
         <v>235052</v>
       </c>
+      <c r="U24" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="V24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
+      </c>
+      <c r="W24" s="4">
+        <v>24277</v>
       </c>
       <c r="X24" s="4">
-        <v>24277</v>
+        <v>6726</v>
       </c>
       <c r="Y24" s="4">
-        <v>6726</v>
+        <v>6482000</v>
       </c>
       <c r="Z24" s="4">
-        <v>6482000</v>
-      </c>
-      <c r="AA24" s="4">
         <v>790493</v>
       </c>
+      <c r="AA24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC24">
+        <v>140000</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>348.86099999999999</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>6091.4709999999995</v>
+      </c>
+      <c r="AF24">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -3637,37 +4107,52 @@
         <v>857</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U25" s="4">
+        <v>129</v>
+      </c>
+      <c r="T25" s="4">
         <v>216019</v>
       </c>
+      <c r="U25" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="V25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
+      </c>
+      <c r="W25" s="4">
+        <v>24292</v>
       </c>
       <c r="X25" s="4">
-        <v>24292</v>
+        <v>6751</v>
       </c>
       <c r="Y25" s="4">
-        <v>6751</v>
+        <v>6505620</v>
       </c>
       <c r="Z25" s="4">
-        <v>6505620</v>
-      </c>
-      <c r="AA25" s="4">
         <v>826981</v>
       </c>
+      <c r="AA25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC25">
+        <v>136000</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>402.65899999999999</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>5846.6719999999996</v>
+      </c>
+      <c r="AF25">
+        <v>25200</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -3720,37 +4205,52 @@
         <v>843</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="U26" s="4">
+        <v>133</v>
+      </c>
+      <c r="T26" s="4">
         <v>219500</v>
       </c>
+      <c r="U26" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="V26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
+      </c>
+      <c r="W26" s="4">
+        <v>24278</v>
       </c>
       <c r="X26" s="4">
-        <v>24278</v>
+        <v>6844</v>
       </c>
       <c r="Y26" s="4">
-        <v>6844</v>
+        <v>6543612</v>
       </c>
       <c r="Z26" s="4">
-        <v>6543612</v>
-      </c>
-      <c r="AA26" s="4">
         <v>876495</v>
       </c>
+      <c r="AA26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC26">
+        <v>137400</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>369.35199999999998</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>5756.0720000000001</v>
+      </c>
+      <c r="AF26">
+        <v>24500</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -3803,37 +4303,52 @@
         <v>858</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U27" s="4">
+        <v>137</v>
+      </c>
+      <c r="T27" s="4">
         <v>227331</v>
       </c>
+      <c r="U27" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="V27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>165</v>
+        <v>139</v>
+      </c>
+      <c r="W27" s="4">
+        <v>24286</v>
       </c>
       <c r="X27" s="4">
-        <v>24286</v>
+        <v>6943</v>
       </c>
       <c r="Y27" s="4">
-        <v>6943</v>
+        <v>6606844</v>
       </c>
       <c r="Z27" s="4">
-        <v>6606844</v>
-      </c>
-      <c r="AA27" s="4">
         <v>916755</v>
       </c>
+      <c r="AA27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC27">
+        <v>137712</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>374.45800000000003</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>5781.348</v>
+      </c>
+      <c r="AF27">
+        <v>24724</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -3886,37 +4401,52 @@
         <v>846</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="U28" s="4">
+        <v>141</v>
+      </c>
+      <c r="T28" s="4">
         <v>234133</v>
       </c>
+      <c r="U28" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="V28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>170</v>
+        <v>143</v>
+      </c>
+      <c r="W28" s="4">
+        <v>24435</v>
       </c>
       <c r="X28" s="4">
-        <v>24435</v>
+        <v>6943</v>
       </c>
       <c r="Y28" s="4">
-        <v>6943</v>
+        <v>6689911</v>
       </c>
       <c r="Z28" s="4">
-        <v>6689911</v>
-      </c>
-      <c r="AA28" s="4">
         <v>991688</v>
       </c>
+      <c r="AA28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC28">
+        <v>142265</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>385.12099999999998</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>5929.7669999999998</v>
+      </c>
+      <c r="AF28">
+        <v>25132</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -3969,37 +4499,52 @@
         <v>844.32</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="U29" s="4">
+        <v>145</v>
+      </c>
+      <c r="T29" s="4">
         <v>234133</v>
       </c>
+      <c r="U29" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="V29" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="W29" s="4">
+        <v>24483</v>
       </c>
       <c r="X29" s="4">
-        <v>24483</v>
+        <v>6943</v>
       </c>
       <c r="Y29" s="4">
-        <v>6943</v>
+        <v>6780733</v>
       </c>
       <c r="Z29" s="4">
-        <v>6780733</v>
-      </c>
-      <c r="AA29" s="4">
         <v>1077874</v>
       </c>
+      <c r="AA29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC29">
+        <v>146948</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>400.79199999999997</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>5949.393</v>
+      </c>
+      <c r="AF29">
+        <v>25080</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -4052,37 +4597,46 @@
         <v>851.62</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="U30" s="4">
+        <v>149</v>
+      </c>
+      <c r="T30" s="4">
         <v>217190</v>
       </c>
+      <c r="U30" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="V30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>180</v>
+        <v>151</v>
+      </c>
+      <c r="W30" s="4">
+        <v>24502</v>
       </c>
       <c r="X30" s="4">
-        <v>24502</v>
+        <v>6966</v>
       </c>
       <c r="Y30" s="4">
-        <v>6966</v>
+        <v>6896048</v>
       </c>
       <c r="Z30" s="4">
-        <v>6896048</v>
-      </c>
-      <c r="AA30" s="4">
         <v>1066221</v>
       </c>
+      <c r="AA30" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>400.79</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>6311.16</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -4135,37 +4689,46 @@
         <v>819.33199999999999</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="U31" s="4">
+        <v>153</v>
+      </c>
+      <c r="T31" s="4">
         <v>220030</v>
       </c>
+      <c r="U31" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="V31" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>185</v>
+        <v>155</v>
+      </c>
+      <c r="W31" s="4">
+        <v>24500</v>
       </c>
       <c r="X31" s="4">
-        <v>24500</v>
+        <v>6977</v>
       </c>
       <c r="Y31" s="4">
-        <v>6977</v>
+        <v>7003618</v>
       </c>
       <c r="Z31" s="4">
-        <v>7003618</v>
-      </c>
-      <c r="AA31" s="4">
         <v>1021941</v>
       </c>
+      <c r="AA31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>402.29</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>6377.23</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -4218,34 +4781,43 @@
         <v>831.88199999999995</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="U32" s="4">
+        <v>157</v>
+      </c>
+      <c r="T32" s="4">
         <v>227320</v>
       </c>
+      <c r="U32" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="V32" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
+      </c>
+      <c r="W32" s="4">
+        <v>24515</v>
       </c>
       <c r="X32" s="4">
-        <v>24515</v>
+        <v>6978</v>
       </c>
       <c r="Y32" s="4">
-        <v>6978</v>
+        <v>7152760</v>
       </c>
       <c r="Z32" s="4">
-        <v>7152760</v>
-      </c>
-      <c r="AA32" s="4">
         <v>776205</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>407.03</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>6400.04</v>
       </c>
     </row>
   </sheetData>
